--- a/Assets/Resources/CSV.data/DifficultStat.xlsx
+++ b/Assets/Resources/CSV.data/DifficultStat.xlsx
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +229,22 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -658,14 +674,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -992,179 +1011,179 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="b">
+      <c r="B2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="b">
+      <c r="B3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="b">
+      <c r="B4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="B5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
         <v>12</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>6</v>
       </c>
-      <c r="G5" s="2" t="b">
+      <c r="G5" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>15</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>7</v>
       </c>
-      <c r="G6" s="2" t="b">
+      <c r="G6" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>20</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>10</v>
       </c>
-      <c r="G7" s="2" t="b">
+      <c r="G7" s="1" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/CSV.data/DifficultStat.xlsx
+++ b/Assets/Resources/CSV.data/DifficultStat.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Brotatos\Assets\Resources\CSV.data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAE4B61-0849-4B0D-BEEE-E803E51657E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="8640"/>
+    <workbookView xWindow="29010" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DifficultStat" sheetId="1" r:id="rId1"/>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1007,11 +1008,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1019,7 +1020,7 @@
     <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.375" style="1" bestFit="1" customWidth="1"/>
@@ -1054,10 +1055,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -1080,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -1106,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -1129,13 +1130,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <v>12</v>
       </c>
       <c r="F5" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="b">
         <v>0</v>
@@ -1152,13 +1153,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1" t="b">
         <v>0</v>
@@ -1175,13 +1176,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1" t="b">
         <v>1</v>
